--- a/medicine/Enfance/Henriette-Suzanne_Brès/Henriette-Suzanne_Brès.xlsx
+++ b/medicine/Enfance/Henriette-Suzanne_Brès/Henriette-Suzanne_Brès.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Henriette-Suzanne_Br%C3%A8s</t>
+          <t>Henriette-Suzanne_Brès</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henriette-Suzanne Brès, née à Loriol (Drôme) le 28 janvier 1855 et morte à Paris le 14 juin 1919[1], est une pédagogue française, auteur d'ouvrages de pédagogie et de nombreux ouvrages pour les enfants.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henriette-Suzanne Brès, née à Loriol (Drôme) le 28 janvier 1855 et morte à Paris le 14 juin 1919, est une pédagogue française, auteur d'ouvrages de pédagogie et de nombreux ouvrages pour les enfants.
 Directrice d'école maternelle, elle est inspectrice générale des écoles maternelles de 1894 à 1917. Elle a notamment travaillé avec Pauline Kergomard et Adèle de Portugall, appartenant comme elles à l'école froebelienne française, et a écrit entre autres pour la librairie Hachette une série d’ouvrages de découverte de la lecture, de l’arithmétique, de l’histoire, de la géographie, etc.
 Ses ouvrages ont été publiés, en général, sous le nom de Mademoiselle Brès, Mademoiselle S. Brès ou Mademoiselle H. S. Brès.
 </t>
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Henriette-Suzanne_Br%C3%A8s</t>
+          <t>Henriette-Suzanne_Brès</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,7 +525,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chants et jeux avec accompagnement de piano à l'usage de la famille, des jardins d'enfants, des écoles maternelles et des écoles primaires, Paris : Ch. Delagrave, 1882 (avec Adèle de Portugall)
 Chansons d'enfants, recueil à l'usage des écoles maternelles et enfantines, Delagrave, 1887 (avec Laure Collin)
